--- a/genero/escoslz.xlsx
+++ b/genero/escoslz.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melquias\Desktop\OMT\genero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{871916F3-849D-41AF-958B-EE55BEA58148}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44723D5D-0B9A-4939-AB53-ED9BD720A870}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mas" sheetId="1" r:id="rId1"/>
+    <sheet name="escoslz" sheetId="1" r:id="rId1"/>
+    <sheet name="proporção" sheetId="2" r:id="rId2"/>
+    <sheet name="média" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>Ano</t>
   </si>
@@ -59,6 +61,9 @@
   </si>
   <si>
     <t>feminino</t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
 </sst>
 </file>
@@ -550,9 +555,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -910,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,4 +1454,567 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9303C963-077D-435A-BED5-357546A7981C}">
+  <dimension ref="A1:AE20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="2">
+        <f>escoslz!B2/escoslz!B9</f>
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="C2" s="2">
+        <f>escoslz!C2/escoslz!C9</f>
+        <v>2.8350305498981672</v>
+      </c>
+      <c r="D2" s="2">
+        <f>escoslz!D2/escoslz!D9</f>
+        <v>2.7454702329594478</v>
+      </c>
+      <c r="E2" s="2">
+        <f>escoslz!E2/escoslz!E9</f>
+        <v>3.5393068469991547</v>
+      </c>
+      <c r="F2" s="2">
+        <f>escoslz!F2/escoslz!F9</f>
+        <v>3.3102027883396703</v>
+      </c>
+      <c r="G2" s="2">
+        <f>escoslz!G2/escoslz!G9</f>
+        <v>2.2419161676646708</v>
+      </c>
+      <c r="H2" s="2">
+        <f>escoslz!H2/escoslz!H9</f>
+        <v>1.460795683743445</v>
+      </c>
+      <c r="I2" s="2">
+        <f>escoslz!I2/escoslz!I9</f>
+        <v>0.85716320136713187</v>
+      </c>
+      <c r="J2" s="2">
+        <f>escoslz!J2/escoslz!J9</f>
+        <v>0.67343224598745099</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="2">
+        <f>escoslz!B3/escoslz!B10</f>
+        <v>7.7906976744186043</v>
+      </c>
+      <c r="C3" s="2">
+        <f>escoslz!C3/escoslz!C10</f>
+        <v>3.4362089914945324</v>
+      </c>
+      <c r="D3" s="2">
+        <f>escoslz!D3/escoslz!D10</f>
+        <v>2.7257785467128026</v>
+      </c>
+      <c r="E3" s="2">
+        <f>escoslz!E3/escoslz!E10</f>
+        <v>3.3515151515151516</v>
+      </c>
+      <c r="F3" s="2">
+        <f>escoslz!F3/escoslz!F10</f>
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="G3" s="2">
+        <f>escoslz!G3/escoslz!G10</f>
+        <v>0.72376311844077956</v>
+      </c>
+      <c r="H3" s="2">
+        <f>escoslz!H3/escoslz!H10</f>
+        <v>1.459531444624069</v>
+      </c>
+      <c r="I3" s="2">
+        <f>escoslz!I3/escoslz!I10</f>
+        <v>1.0044004400440043</v>
+      </c>
+      <c r="J3" s="2">
+        <f>escoslz!J3/escoslz!J10</f>
+        <v>0.70852472145666978</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="2">
+        <f>escoslz!B4/escoslz!B11</f>
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="C4" s="2">
+        <f>escoslz!C4/escoslz!C11</f>
+        <v>4.2444444444444445</v>
+      </c>
+      <c r="D4" s="2">
+        <f>escoslz!D4/escoslz!D11</f>
+        <v>3.5250266240681576</v>
+      </c>
+      <c r="E4" s="2">
+        <f>escoslz!E4/escoslz!E11</f>
+        <v>3.3479196556671451</v>
+      </c>
+      <c r="F4" s="2">
+        <f>escoslz!F4/escoslz!F11</f>
+        <v>2.4097849285831554</v>
+      </c>
+      <c r="G4" s="2">
+        <f>escoslz!G4/escoslz!G11</f>
+        <v>0.6747902328650891</v>
+      </c>
+      <c r="H4" s="2">
+        <f>escoslz!H4/escoslz!H11</f>
+        <v>1.4276051771334415</v>
+      </c>
+      <c r="I4" s="2">
+        <f>escoslz!I4/escoslz!I11</f>
+        <v>1.2473438956197578</v>
+      </c>
+      <c r="J4" s="2">
+        <f>escoslz!J4/escoslz!J11</f>
+        <v>0.73109815100557052</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="2">
+        <f>escoslz!B5/escoslz!B12</f>
+        <v>7.8771929824561404</v>
+      </c>
+      <c r="C5" s="2">
+        <f>escoslz!C5/escoslz!C12</f>
+        <v>3.7984267453294001</v>
+      </c>
+      <c r="D5" s="2">
+        <f>escoslz!D5/escoslz!D12</f>
+        <v>3.3651821862348177</v>
+      </c>
+      <c r="E5" s="2">
+        <f>escoslz!E5/escoslz!E12</f>
+        <v>4.4485074626865675</v>
+      </c>
+      <c r="F5" s="2">
+        <f>escoslz!F5/escoslz!F12</f>
+        <v>4.1847055195806355</v>
+      </c>
+      <c r="G5" s="2">
+        <f>escoslz!G5/escoslz!G12</f>
+        <v>0.69712472170906159</v>
+      </c>
+      <c r="H5" s="2">
+        <f>escoslz!H5/escoslz!H12</f>
+        <v>1.4753762331719962</v>
+      </c>
+      <c r="I5" s="2">
+        <f>escoslz!I5/escoslz!I12</f>
+        <v>0.95008948101014123</v>
+      </c>
+      <c r="J5" s="2">
+        <f>escoslz!J5/escoslz!J12</f>
+        <v>0.72409784963279966</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="2">
+        <f>escoslz!B6/escoslz!B13</f>
+        <v>16.512820512820515</v>
+      </c>
+      <c r="C6" s="2">
+        <f>escoslz!C6/escoslz!C13</f>
+        <v>6.1627078384798102</v>
+      </c>
+      <c r="D6" s="2">
+        <f>escoslz!D6/escoslz!D13</f>
+        <v>4.3904694167852059</v>
+      </c>
+      <c r="E6" s="2">
+        <f>escoslz!E6/escoslz!E13</f>
+        <v>5.7038567493112948</v>
+      </c>
+      <c r="F6" s="2">
+        <f>escoslz!F6/escoslz!F13</f>
+        <v>1.0328701743581847</v>
+      </c>
+      <c r="G6" s="2">
+        <f>escoslz!G6/escoslz!G13</f>
+        <v>2.7932628797886392</v>
+      </c>
+      <c r="H6" s="2">
+        <f>escoslz!H6/escoslz!H13</f>
+        <v>1.492184585300588</v>
+      </c>
+      <c r="I6" s="2">
+        <f>escoslz!I6/escoslz!I13</f>
+        <v>0.97808275297009417</v>
+      </c>
+      <c r="J6" s="2">
+        <f>escoslz!J6/escoslz!J13</f>
+        <v>0.71964625175634345</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="2">
+        <f>escoslz!B7/escoslz!B14</f>
+        <v>16.111111111111111</v>
+      </c>
+      <c r="C7" s="2">
+        <f>escoslz!C7/escoslz!C14</f>
+        <v>7.0319148936170217</v>
+      </c>
+      <c r="D7" s="2">
+        <f>escoslz!D7/escoslz!D14</f>
+        <v>5.0178571428571432</v>
+      </c>
+      <c r="E7" s="2">
+        <f>escoslz!E7/escoslz!E14</f>
+        <v>6.1246537396121887</v>
+      </c>
+      <c r="F7" s="2">
+        <f>escoslz!F7/escoslz!F14</f>
+        <v>1.1871249929905232</v>
+      </c>
+      <c r="G7" s="2">
+        <f>escoslz!G7/escoslz!G14</f>
+        <v>2.9941615309763217</v>
+      </c>
+      <c r="H7" s="2">
+        <f>escoslz!H7/escoslz!H14</f>
+        <v>1.4869946101227298</v>
+      </c>
+      <c r="I7" s="2">
+        <f>escoslz!I7/escoslz!I14</f>
+        <v>0.89117789626757149</v>
+      </c>
+      <c r="J7" s="2">
+        <f>escoslz!J7/escoslz!J14</f>
+        <v>0.72498846686144858</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="2">
+        <f>escoslz!B8/escoslz!B15</f>
+        <v>13.69047619047619</v>
+      </c>
+      <c r="C8" s="2">
+        <f>escoslz!C8/escoslz!C15</f>
+        <v>6.7455197132616487</v>
+      </c>
+      <c r="D8" s="2">
+        <f>escoslz!D8/escoslz!D15</f>
+        <v>4.007502679528403</v>
+      </c>
+      <c r="E8" s="2">
+        <f>escoslz!E8/escoslz!E15</f>
+        <v>6.06208911614317</v>
+      </c>
+      <c r="F8" s="2">
+        <f>escoslz!F8/escoslz!F15</f>
+        <v>1.8245640713706408</v>
+      </c>
+      <c r="G8" s="2">
+        <f>escoslz!G8/escoslz!G15</f>
+        <v>3.5100286532951288</v>
+      </c>
+      <c r="H8" s="2">
+        <f>escoslz!H8/escoslz!H15</f>
+        <v>1.4793149180725298</v>
+      </c>
+      <c r="I8" s="2">
+        <f>escoslz!I8/escoslz!I15</f>
+        <v>0.88717693836978129</v>
+      </c>
+      <c r="J8" s="2">
+        <f>escoslz!J8/escoslz!J15</f>
+        <v>0.71683176882813515</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACFCE48-CF6D-425F-B856-B7939AA58525}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <f>SUM(proporção!B2:B8)/7</f>
+        <v>10.394645464500334</v>
+      </c>
+      <c r="C2">
+        <f>SUM(proporção!C2:C8)/7</f>
+        <v>4.8934647395035755</v>
+      </c>
+      <c r="D2">
+        <f>SUM(proporção!D2:D8)/7</f>
+        <v>3.6824695470208542</v>
+      </c>
+      <c r="E2">
+        <f>SUM(proporção!E2:E8)/7</f>
+        <v>4.6539783888478103</v>
+      </c>
+      <c r="F2">
+        <f>SUM(proporção!F2:F8)/7</f>
+        <v>2.5335666801338705</v>
+      </c>
+      <c r="G2">
+        <f>SUM(proporção!G2:G8)/7</f>
+        <v>1.9478639006770988</v>
+      </c>
+      <c r="H2">
+        <f>SUM(proporção!H2:H8)/7</f>
+        <v>1.4688289503098289</v>
+      </c>
+      <c r="I2">
+        <f>SUM(proporção!I2:I8)/7</f>
+        <v>0.97363351509264018</v>
+      </c>
+      <c r="J2">
+        <f>SUM(proporção!J2:J8)/7</f>
+        <v>0.71408849364691684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>